--- a/OTQP-PMT-6-2 ��Ŀ�Ǳ���-Sample.xlsx
+++ b/OTQP-PMT-6-2 ��Ŀ�Ǳ���-Sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>里程碑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,10 @@
     <t>拒绝的缺陷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>计数以wbs为准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -243,74 +247,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -505,11 +441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="41160064"/>
-        <c:axId val="41165952"/>
+        <c:axId val="112682880"/>
+        <c:axId val="112684416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="41160064"/>
+        <c:axId val="112682880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -519,7 +455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41165952"/>
+        <c:crossAx val="112684416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -527,7 +463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41165952"/>
+        <c:axId val="112684416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41160064"/>
+        <c:crossAx val="112682880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -764,11 +700,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="80288384"/>
-        <c:axId val="101546624"/>
+        <c:axId val="126395520"/>
+        <c:axId val="126397056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80288384"/>
+        <c:axId val="126395520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -778,14 +714,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101546624"/>
+        <c:crossAx val="126397056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="101546624"/>
+        <c:axId val="126397056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -796,7 +732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80288384"/>
+        <c:crossAx val="126395520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1048,11 +984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="59851904"/>
-        <c:axId val="59853440"/>
+        <c:axId val="126418304"/>
+        <c:axId val="126444672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59851904"/>
+        <c:axId val="126418304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59853440"/>
+        <c:crossAx val="126444672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1070,7 +1006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59853440"/>
+        <c:axId val="126444672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1081,7 +1017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59851904"/>
+        <c:crossAx val="126418304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1433,11 +1369,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101545472"/>
-        <c:axId val="102067200"/>
+        <c:axId val="126779776"/>
+        <c:axId val="126781312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101545472"/>
+        <c:axId val="126779776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102067200"/>
+        <c:crossAx val="126781312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1391,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102067200"/>
+        <c:axId val="126781312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,7 +1402,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101545472"/>
+        <c:crossAx val="126779776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1701,11 +1637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127826944"/>
-        <c:axId val="127836928"/>
+        <c:axId val="126893056"/>
+        <c:axId val="126894848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127826944"/>
+        <c:axId val="126893056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127836928"/>
+        <c:crossAx val="126894848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,7 +1658,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127836928"/>
+        <c:axId val="126894848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127826944"/>
+        <c:crossAx val="126893056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1846,8 +1782,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127923712"/>
-        <c:axId val="127925248"/>
+        <c:axId val="126557184"/>
+        <c:axId val="126567168"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1923,11 +1859,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="110842624"/>
-        <c:axId val="108112128"/>
+        <c:axId val="126574592"/>
+        <c:axId val="126568704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127923712"/>
+        <c:axId val="126557184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +1872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127925248"/>
+        <c:crossAx val="126567168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1944,7 +1880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127925248"/>
+        <c:axId val="126567168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,12 +1891,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127923712"/>
+        <c:crossAx val="126557184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="108112128"/>
+        <c:axId val="126568704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1970,12 +1906,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110842624"/>
+        <c:crossAx val="126574592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="110842624"/>
+        <c:axId val="126574592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1984,7 +1920,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108112128"/>
+        <c:crossAx val="126568704"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2223,7 +2160,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="282828"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -2626,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2638,7 +2575,7 @@
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -2652,7 +2589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>40630</v>
       </c>
@@ -2666,8 +2603,11 @@
         <f>B2-C2</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>40635</v>
       </c>
@@ -2682,7 +2622,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>40641</v>
       </c>
@@ -2697,7 +2637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>40648</v>
       </c>
